--- a/MusicSearch/PythonNetwork/result.xlsx
+++ b/MusicSearch/PythonNetwork/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Like That</t>
+          <t>Лидия Русланова - Я на горку шла</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2500000298023224</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5.27057100743462e-19</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.256952727630051e-08</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2.108228402973848e-18</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9999998807907104</v>
       </c>
     </row>
     <row r="4">
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>8.032205704578981e-35</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -666,50 +666,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Часть 5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MusicSearch/PythonNetwork/result.xlsx
+++ b/MusicSearch/PythonNetwork/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,38 +493,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Лидия Русланова - Я на горку шла</t>
+          <t>Imagine Dragons - Natural</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.632635608459168e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.976374393261267e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2500000298023224</v>
+        <v>1.248727208068134e-32</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.274465624420515e-31</v>
       </c>
       <c r="I2" t="n">
-        <v>5.27057100743462e-19</v>
+        <v>6.155330829456587e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.195827588247225e-30</v>
       </c>
       <c r="K2" t="n">
-        <v>0.75</v>
+        <v>1.606470736797155e-25</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5.985824458321076e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>7.256952727630051e-08</v>
+        <v>7.492362954535219e-32</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.108228402973848e-18</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.917496477716696e-29</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999998807907104</v>
+        <v>9.6388241742639e-25</v>
       </c>
     </row>
     <row r="4">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.839323470279668e-30</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.012792128130989e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.59321101840535e-21</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8.032205704578981e-35</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.508726832355478e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.318700609293955e-08</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -666,13 +666,87 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.342617278594478e-24</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Часть 5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.451703720441933e-20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.564679468691857e-30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.693198633199224e-13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Часть 6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.270853378088077e-08</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.681424265613719e-21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MusicSearch/PythonNetwork/result.xlsx
+++ b/MusicSearch/PythonNetwork/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,38 +493,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Imagine Dragons - Natural</t>
+          <t>Dion Timmer Tima Dee - Till I Make It</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.142747089266777</v>
       </c>
       <c r="C2" t="n">
-        <v>4.632635608459168e-09</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333432674408</v>
+        <v>1.800229154302562e-21</v>
       </c>
       <c r="E2" t="n">
-        <v>9.976374393261267e-09</v>
+        <v>0.1425803005695343</v>
       </c>
       <c r="F2" t="n">
-        <v>1.248727208068134e-32</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.225077926411913e-11</v>
       </c>
       <c r="H2" t="n">
-        <v>4.274465624420515e-31</v>
+        <v>0.285824328660965</v>
       </c>
       <c r="I2" t="n">
-        <v>6.155330829456587e-14</v>
+        <v>0.4288482666015625</v>
       </c>
       <c r="J2" t="n">
-        <v>3.195827588247225e-30</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.606470736797155e-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.9992296695709229</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -543,25 +543,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.985824458321076e-08</v>
+        <v>1.923671678679984e-30</v>
       </c>
       <c r="F3" t="n">
-        <v>7.492362954535219e-32</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.921842346453244e-33</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0007703754818066955</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.440251133562373e-38</v>
       </c>
       <c r="J3" t="n">
-        <v>1.917496477716696e-29</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.6388241742639e-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>8.120052232095788e-17</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.839323470279668e-30</v>
+        <v>5.415737946190146e-36</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.938636993756518e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.1754309763373e-27</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.999950647354126</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -608,28 +608,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>8.937175561879075e-38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.566569574996457e-27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.856826135186566e-09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.26661749740368e-32</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.012792128130989e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.59321101840535e-21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -645,28 +645,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.508726832355478e-08</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.318700609293955e-08</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>5.342617278594478e-24</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.451703720441933e-20</v>
+        <v>5.802381094181666e-15</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.260160064699527e-20</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.9980126619338989</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.9575544790994e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>2.564679468691857e-30</v>
+        <v>4.795098730918006e-38</v>
       </c>
       <c r="I7" t="n">
-        <v>3.693198633199224e-13</v>
+        <v>0.001987320138141513</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -722,30 +722,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.270853378088077e-08</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>8.761714346170381e-29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.049254503618008e-18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.569810451342345e-29</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.681424265613719e-21</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Часть 7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.885485473159124e-21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
